--- a/data/long_bre/P18_5-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_5-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,07</t>
+          <t>14,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>12,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>53,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47,39%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 12,12</t>
+          <t>-11,64; 12,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 26,27</t>
+          <t>2,11; 26,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 8,15</t>
+          <t>-8,48; 9,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 83,1</t>
+          <t>-0,16; 25,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 142,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 33,22</t>
+          <t>-41,47; 85,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,16; 144,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 40,06</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 149,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,36</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,72%</t>
+          <t>-15,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,81%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>-20,69%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-18,8%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-30,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 2,18</t>
+          <t>-26,88; 7,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 4,97</t>
+          <t>-20,93; 8,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 21,36</t>
+          <t>-2,34; 17,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 7,15</t>
+          <t>-34,85; -1,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 14,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 77,04</t>
+          <t>-52,3; 27,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-42,77; 26,92</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 66,48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-56,89; -3,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,44</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-24,72%</t>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-20,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-18,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 22,82</t>
+          <t>-7,51; 22,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 6,8</t>
+          <t>-27,86; 6,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 0,84</t>
+          <t>-21,33; 2,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 82,98</t>
+          <t>-8,82; 15,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 35,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 3,95</t>
+          <t>-15,41; 73,84</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-60,35; 27,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-44,18; 7,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-30,48; 93,1</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 10,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 40,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 31,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 15,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-15,85%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>-22,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 6,38</t>
+          <t>-10,24; 1,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 0,88</t>
+          <t>-3,53; 13,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 8,19</t>
+          <t>-9,27; 4,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 20,78</t>
+          <t>-0,77; 13,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 2,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 21,83</t>
+          <t>-47,84; 12,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; 47,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,48; 14,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 64,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-14,41%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-20,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-14,16%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 6,82</t>
+          <t>-15,81; 3,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 9,8</t>
+          <t>-17,6; -0,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 5,64</t>
+          <t>-5,82; 8,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 14,67</t>
+          <t>-14,69; 1,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 53,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 24,52</t>
+          <t>-35,84; 10,25</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-36,81; -2,96</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 22,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-28,76; 4,7</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 3,72</t>
+          <t>-0,37; 18,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 7,72</t>
+          <t>-3,15; 11,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 6,55</t>
+          <t>-5,49; 6,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 38,92</t>
+          <t>-8,31; 8,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 20,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 27,89</t>
+          <t>-1,04; 48,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 57,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 31,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-23,17; 33,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 9,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 4,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 13,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 28,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 9,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>-13,77%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-9,52%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 13,08</t>
+          <t>-7,98; 4,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 6,25</t>
+          <t>-9,88; 7,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 9,73</t>
+          <t>-5,64; 6,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 29,4</t>
+          <t>-11,98; 4,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 39,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 43,21</t>
+          <t>-50,22; 52,24</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-20,73; 20,84</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; 30,26</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-32,2; 19,2</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,11%</t>
+          <t>-4,3%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,3</t>
+          <t>-10,84; 6,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 9,14</t>
+          <t>-6,6; 9,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 2,96</t>
+          <t>-11,62; 2,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 29,7</t>
+          <t>-5,31; 12,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 28,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 10,4</t>
+          <t>-28,98; 23,2</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,94; 28,66</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-22,2; 6,06</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 33,86</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12,87%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-2,23%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 1,15</t>
+          <t>-6,23; 13,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 1,19</t>
+          <t>-7,06; 7,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,58</t>
+          <t>-4,11; 9,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 3,42</t>
+          <t>-8,51; 6,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 16,73</t>
+          <t>-10,28; 26,6</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-29,62; 44,38</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; 46,43</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-28,95; 32,1</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 18,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 22,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 13,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 7,76</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 14,94</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-18,69; 57,88</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; 48,29</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 8,19</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 11,14</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-20,07; 26,49</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-29,21; 31,93</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-13,52%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-10,62; 5,48</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-11,61; 6,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-20,13; 12,3</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-45,78; 43,97</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-4,13%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-3,67%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 2,63</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 9,3</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 3,02</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 9,97</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-22,7; 17,94</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 28,27</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; 11,37</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 41,59</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-4,61</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-4,93</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-11,23%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; 2,16</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-9,83; 0,51</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 5,55</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; 0,88</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-20,49; 6,68</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-22,2; 1,39</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 14,6</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-22,21; 2,05</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 8,61</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 4,41</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 4,04</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 5,4</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 19,45</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-20,0; 21,52</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-13,99; 15,77</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-17,04; 22,85</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P18_5-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_5-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
